--- a/测谈网接口自动化1/data/测谈网接口测试用例.xlsx
+++ b/测谈网接口自动化1/data/测谈网接口测试用例.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\project\测谈网接口自动化\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\project\interface-test\测谈网接口自动化1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61BA76F-536A-4833-A38B-0A76AFBC6707}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EA73F8-53E0-4FC5-945E-AFB22CED7722}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="4452" windowWidth="17280" windowHeight="8964" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="获取版本" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,15 @@
     <sheet name="获取教程详情" sheetId="5" r:id="rId4"/>
     <sheet name="获取热门讨论" sheetId="6" r:id="rId5"/>
     <sheet name="用户注册" sheetId="9" r:id="rId6"/>
-    <sheet name="获取首页轮播图" sheetId="3" r:id="rId7"/>
-    <sheet name="获取问题详情" sheetId="7" r:id="rId8"/>
-    <sheet name="获取热门文章" sheetId="8" r:id="rId9"/>
+    <sheet name="获取文章详情" sheetId="10" r:id="rId7"/>
+    <sheet name="获取灵感" sheetId="11" r:id="rId8"/>
+    <sheet name="获取活跃用户" sheetId="13" r:id="rId9"/>
+    <sheet name="获取评论列表" sheetId="14" r:id="rId10"/>
+    <sheet name="获取灵感详情" sheetId="12" r:id="rId11"/>
+    <sheet name="获取首页轮播图" sheetId="3" r:id="rId12"/>
+    <sheet name="获取问题详情" sheetId="7" r:id="rId13"/>
+    <sheet name="获取热门文章" sheetId="8" r:id="rId14"/>
+    <sheet name="获取密保问题列表" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="167">
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -437,6 +443,209 @@
   </si>
   <si>
     <t>{"username":"ykl122345", "password":"a1234567", "phone":"18711112222", "email":"1959731096@qq.com" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/get/question?aid=1.4</t>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/get/question?aid=-3</t>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/get/question?aid=a</t>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/get/question?aid=</t>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/get/question?aid=100000</t>
+  </si>
+  <si>
+    <t>获取文章详情成功</t>
+  </si>
+  <si>
+    <t>获取文章详情失败，cid为小数</t>
+  </si>
+  <si>
+    <t>获取文章详情失败，cid为负数</t>
+  </si>
+  <si>
+    <t>获取文章详情失败，cid为字符</t>
+  </si>
+  <si>
+    <t>获取文章详情失败，cid为空</t>
+  </si>
+  <si>
+    <t>获取文章详情失败，cid不存在</t>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/get/question?aid=106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取灵感</t>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/getinspirer?pagenum=1</t>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/getinspirer</t>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/getinspirer?pagenum=1.5</t>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/getinspirer?pagenum=a</t>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/getinspirer?pagenum=-5</t>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/getinspirer?pagenum=100000000000000000000</t>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/get/inspirer?iid=1</t>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/get/inspirer?iid=1.4</t>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/get/inspirer?iid=-3</t>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/get/inspirer?iid=a</t>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/get/inspirer?iid=</t>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/get/inspirer?iid=100000</t>
+  </si>
+  <si>
+    <t>获取活跃用户</t>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/gethighusers</t>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/gethighusers?num=1.5</t>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/gethighusers?num=a</t>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/gethighusers?num=-5</t>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/gethighusers?num=15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/gethighusers?num=100000000000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/getcomments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ctype":0,"fid":"1", "pagenum":"1" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取评论列表成功，ctype为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取评论列表成功，ctype为1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取评论列表成功，ctype为2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取评论列表成功，ctype为3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ctype":1,"fid":"1", "pagenum":"1" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ctype":2,"fid":"1", "pagenum":"1" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ctype":3,"fid":"1", "pagenum":"1" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ctype":4,"fid":"1", "pagenum":"1" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取评论列表失败,ctype不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ctype":0,"fid":"a", "pagenum":"1" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取评论列表失败，fid为非正整数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取评论列表失败，fid空白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取评论列表失败，ctype空白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ctype":0,"fid":"", "pagenum":"1" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ctype":"","fid":"1", "pagenum":"1" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取评论列表失败，page空白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ctype":"0","fid":"1", "pagenum":"" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取评论列表失败，page太大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ctype":"0","fid":"1", "pagenum":"1000000000000000000000" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ctype":"0","fid":"1", "pagenum":"1.5" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ctype":"0","fid":"1", "pagenum":"q" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取评论列表失败，page字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取密保问题列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/getmblist</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -848,6 +1057,977 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E92BA043-4653-418D-97AE-1104996B2E41}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="39" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" t="s">
+        <v>161</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" t="s">
+        <v>162</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{64EA38A6-B40A-4D38-A88B-01AB96519C31}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{C9E633AB-B1D4-4AD5-925D-B2FD8C793729}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{D3891F2C-83A0-4BD1-8B08-966B209B52C3}"/>
+    <hyperlink ref="C5:C10" r:id="rId4" display="http://118.24.105.78:2333/getcomments" xr:uid="{E55AACA9-FE2E-475E-9544-1FAD73E119E5}"/>
+    <hyperlink ref="C9" r:id="rId5" xr:uid="{4EC9954F-2A37-42E5-A160-D51891E473D6}"/>
+    <hyperlink ref="C10" r:id="rId6" xr:uid="{FC66F728-1B60-4689-90FA-E25C8EBB0C46}"/>
+    <hyperlink ref="C11" r:id="rId7" xr:uid="{514A1345-A92C-465B-A1F8-AFE201DD4F25}"/>
+    <hyperlink ref="C12" r:id="rId8" xr:uid="{B494606E-C7C2-4779-A5CC-C3B1DE933750}"/>
+    <hyperlink ref="C13" r:id="rId9" xr:uid="{9E1939E8-AEE4-47B0-9800-538587935C5D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D92BAEF-C9BC-455D-A259-10360640BF93}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7">
+        <v>401</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="http://118.24.105.78:2333/get/question?iid=1" xr:uid="{A4EEA54F-4B31-4EC9-8586-D9F5AF0CF919}"/>
+    <hyperlink ref="C3" r:id="rId2" display="http://118.24.105.78:2333/get/coure?cid=1.4" xr:uid="{1B20DFED-A2BF-4221-B7CF-254DE0CCF6B8}"/>
+    <hyperlink ref="C4" r:id="rId3" display="http://118.24.105.78:2333/get/coure?cid=-3" xr:uid="{4CCC0166-F5AD-45B3-A135-01BB9973063F}"/>
+    <hyperlink ref="C5" r:id="rId4" display="http://118.24.105.78:2333/get/coure?cid=a" xr:uid="{2AD34790-81A2-44B9-AC74-96F9B9CE0E8B}"/>
+    <hyperlink ref="C6" r:id="rId5" display="http://118.24.105.78:2333/get/coure?cid=" xr:uid="{9C910E4A-F076-4D14-AF5C-9E013929E25D}"/>
+    <hyperlink ref="C7" r:id="rId6" display="http://118.24.105.78:2333/get/coure?cid=100000" xr:uid="{BADF0C8B-2522-4FA1-88CE-1A6E2DC52856}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0230C259-0C13-4F51-93DA-EEC0D030BBAC}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{8AFBFC1A-0DC2-4888-BA9F-43E63AF48BE2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDF9FA2-2FF5-4C4C-BA16-A9F180D986C5}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7">
+        <v>401</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{77A6622D-08D1-4BAD-B7ED-C67ABAE3F2E0}"/>
+    <hyperlink ref="C3" r:id="rId2" display="http://118.24.105.78:2333/get/coure?cid=1.4" xr:uid="{C40D6393-93E1-4CD2-9EF0-BDCFFBABB666}"/>
+    <hyperlink ref="C4" r:id="rId3" display="http://118.24.105.78:2333/get/coure?cid=-3" xr:uid="{DC0C3B01-7662-416E-9B28-CC0275A48057}"/>
+    <hyperlink ref="C5" r:id="rId4" display="http://118.24.105.78:2333/get/coure?cid=a" xr:uid="{088D2D9C-AAD4-4F3D-9597-F661FE463F20}"/>
+    <hyperlink ref="C6" r:id="rId5" display="http://118.24.105.78:2333/get/coure?cid=" xr:uid="{135D3F19-0519-44D0-B09D-1336EDD41245}"/>
+    <hyperlink ref="C7" r:id="rId6" display="http://118.24.105.78:2333/get/coure?cid=100000" xr:uid="{9E3CC2D5-40FC-41D2-B21D-CA0736EA67B9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{149491A3-B9AF-4811-89A1-FCAC763E1A4D}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="http://118.24.105.78:2333/getcoures?pagenum=1" xr:uid="{DBA7A9C3-5684-4697-99E9-B998829EF429}"/>
+    <hyperlink ref="C3" r:id="rId2" display="http://118.24.105.78:2333/getcoures" xr:uid="{E8BBA543-3CBD-4DFE-B1E7-E3CF1A556268}"/>
+    <hyperlink ref="C4" r:id="rId3" display="http://118.24.105.78:2333/getcoures?pagenum=1.5" xr:uid="{06D65954-3FAF-459A-AE6F-EA239BE70B81}"/>
+    <hyperlink ref="C5" r:id="rId4" display="http://118.24.105.78:2333/getcoures?pagenum=a" xr:uid="{D4734024-6523-4346-B38E-8A49A16A12D4}"/>
+    <hyperlink ref="C6" r:id="rId5" display="http://118.24.105.78:2333/getcoures?pagenum=-5" xr:uid="{660867D7-A085-406D-B0F3-ADC6DF55C8A0}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{A6E0869D-6AC7-4B1F-A9C1-CC52ABE16B8F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB9D085-70BB-46D6-8695-6100C4D92D15}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{647DE69E-CCC5-4E39-9398-1E0AB2D5EC5E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21174D7A-05FC-430E-B02C-BEAB889229DE}">
   <dimension ref="A1:G6"/>
@@ -1512,8 +2692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740D4495-0D90-443C-8B53-8586831A21D4}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1910,11 +3090,182 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0230C259-0C13-4F51-93DA-EEC0D030BBAC}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A439D0ED-0E0B-4964-9DA0-52C4348A7D75}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="27.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7">
+        <v>401</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{438C3708-7055-4914-B821-2D58FFDE0762}"/>
+    <hyperlink ref="C3" r:id="rId2" display="http://118.24.105.78:2333/get/coure?cid=1.4" xr:uid="{4473F1CD-E4D1-4445-A793-62E4BD44DDC4}"/>
+    <hyperlink ref="C4" r:id="rId3" display="http://118.24.105.78:2333/get/coure?cid=-3" xr:uid="{A2DAAACB-52B8-4476-9C6C-B853AC5DBDB6}"/>
+    <hyperlink ref="C5" r:id="rId4" display="http://118.24.105.78:2333/get/coure?cid=a" xr:uid="{E78DF952-7D6B-4992-9069-5643BC16A6ED}"/>
+    <hyperlink ref="C6" r:id="rId5" display="http://118.24.105.78:2333/get/coure?cid=" xr:uid="{AB73F2F8-91F5-4146-966C-EF6F2DEA6575}"/>
+    <hyperlink ref="C7" r:id="rId6" display="http://118.24.105.78:2333/get/coure?cid=100000" xr:uid="{1EDA17E7-15B5-409F-A9D9-77E6F02C99A8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD38EAD-2BCF-43B6-95E1-484498ADCAA0}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1947,10 +3298,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>121</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -1959,25 +3310,129 @@
         <v>11</v>
       </c>
       <c r="G2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7">
         <v>200</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{8AFBFC1A-0DC2-4888-BA9F-43E63AF48BE2}"/>
+    <hyperlink ref="C2" r:id="rId1" display="http://118.24.105.78:2333/getcoures?pagenum=1" xr:uid="{E34332AB-FABE-4190-8C3E-17987046015F}"/>
+    <hyperlink ref="C3" r:id="rId2" display="http://118.24.105.78:2333/getcoures" xr:uid="{99350908-8CD4-42CD-8914-8D7D15313254}"/>
+    <hyperlink ref="C4" r:id="rId3" display="http://118.24.105.78:2333/getcoures?pagenum=1.5" xr:uid="{927F6AA7-AFE6-42D6-BB84-1FE871F43107}"/>
+    <hyperlink ref="C5" r:id="rId4" display="http://118.24.105.78:2333/getcoures?pagenum=a" xr:uid="{16D815A2-F688-4F51-B313-52CA766B510E}"/>
+    <hyperlink ref="C6" r:id="rId5" display="http://118.24.105.78:2333/getcoures?pagenum=-5" xr:uid="{97E3917C-BB32-4973-8707-135B8D50742B}"/>
+    <hyperlink ref="C7" r:id="rId6" display="http://118.24.105.78:2333/getarticle?pagenum=100000000000000000000" xr:uid="{27C701E4-CAFE-4C45-A4BA-CC81C42A6457}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDF9FA2-2FF5-4C4C-BA16-A9F180D986C5}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{977AC391-CC53-4E43-A228-25D9FA22C944}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection sqref="A1:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2010,16 +3465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>139</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G2">
         <v>200</v>
@@ -2030,19 +3485,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G3">
-        <v>401</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2050,19 +3505,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G4">
-        <v>401</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2070,19 +3525,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G5">
-        <v>401</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2090,19 +3545,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G6">
-        <v>401</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2110,197 +3565,30 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G7">
-        <v>401</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{77A6622D-08D1-4BAD-B7ED-C67ABAE3F2E0}"/>
-    <hyperlink ref="C3" r:id="rId2" display="http://118.24.105.78:2333/get/coure?cid=1.4" xr:uid="{C40D6393-93E1-4CD2-9EF0-BDCFFBABB666}"/>
-    <hyperlink ref="C4" r:id="rId3" display="http://118.24.105.78:2333/get/coure?cid=-3" xr:uid="{DC0C3B01-7662-416E-9B28-CC0275A48057}"/>
-    <hyperlink ref="C5" r:id="rId4" display="http://118.24.105.78:2333/get/coure?cid=a" xr:uid="{088D2D9C-AAD4-4F3D-9597-F661FE463F20}"/>
-    <hyperlink ref="C6" r:id="rId5" display="http://118.24.105.78:2333/get/coure?cid=" xr:uid="{135D3F19-0519-44D0-B09D-1336EDD41245}"/>
-    <hyperlink ref="C7" r:id="rId6" display="http://118.24.105.78:2333/get/coure?cid=100000" xr:uid="{9E3CC2D5-40FC-41D2-B21D-CA0736EA67B9}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{149491A3-B9AF-4811-89A1-FCAC763E1A4D}">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7">
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="http://118.24.105.78:2333/getcoures?pagenum=1" xr:uid="{DBA7A9C3-5684-4697-99E9-B998829EF429}"/>
-    <hyperlink ref="C3" r:id="rId2" display="http://118.24.105.78:2333/getcoures" xr:uid="{E8BBA543-3CBD-4DFE-B1E7-E3CF1A556268}"/>
-    <hyperlink ref="C4" r:id="rId3" display="http://118.24.105.78:2333/getcoures?pagenum=1.5" xr:uid="{06D65954-3FAF-459A-AE6F-EA239BE70B81}"/>
-    <hyperlink ref="C5" r:id="rId4" display="http://118.24.105.78:2333/getcoures?pagenum=a" xr:uid="{D4734024-6523-4346-B38E-8A49A16A12D4}"/>
-    <hyperlink ref="C6" r:id="rId5" display="http://118.24.105.78:2333/getcoures?pagenum=-5" xr:uid="{660867D7-A085-406D-B0F3-ADC6DF55C8A0}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{A6E0869D-6AC7-4B1F-A9C1-CC52ABE16B8F}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{7F0903F9-BAA9-40BC-AB21-396E29EC3E78}"/>
+    <hyperlink ref="C3" r:id="rId2" display="http://118.24.105.78:2333/getcoures" xr:uid="{9D6C4135-CA45-4F5A-8DED-EDEEF84012F7}"/>
+    <hyperlink ref="C4" r:id="rId3" display="http://118.24.105.78:2333/getcoures?pagenum=1.5" xr:uid="{02A63D2A-8577-4087-8961-79E1445D7652}"/>
+    <hyperlink ref="C5" r:id="rId4" display="http://118.24.105.78:2333/getcoures?pagenum=a" xr:uid="{BD5B8535-C656-4659-9715-9736899AF81C}"/>
+    <hyperlink ref="C6" r:id="rId5" display="http://118.24.105.78:2333/getcoures?pagenum=-5" xr:uid="{E6066E63-ADF1-40B1-8484-B69F53CEC603}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{E30A23E4-1BDE-4B01-8300-71D8F528637E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/测谈网接口自动化1/data/测谈网接口测试用例.xlsx
+++ b/测谈网接口自动化1/data/测谈网接口测试用例.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\project\interface-test\测谈网接口自动化1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EA73F8-53E0-4FC5-945E-AFB22CED7722}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64874660-0CAC-41E0-B416-5691A49D5592}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="791" firstSheet="16" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="获取版本" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,18 @@
     <sheet name="获取问题详情" sheetId="7" r:id="rId13"/>
     <sheet name="获取热门文章" sheetId="8" r:id="rId14"/>
     <sheet name="获取密保问题列表" sheetId="15" r:id="rId15"/>
+    <sheet name="获取标签列表" sheetId="16" r:id="rId16"/>
+    <sheet name="搜索" sheetId="17" r:id="rId17"/>
+    <sheet name="获取用户详情" sheetId="18" r:id="rId18"/>
+    <sheet name="获取用户的灵感列表" sheetId="19" r:id="rId19"/>
+    <sheet name="获取用户文章列表" sheetId="20" r:id="rId20"/>
+    <sheet name="获取用户问题列表" sheetId="21" r:id="rId21"/>
+    <sheet name="获取用户关注人列表" sheetId="23" r:id="rId22"/>
+    <sheet name="获取用户动态列表" sheetId="24" r:id="rId23"/>
+    <sheet name="找回密码" sheetId="25" r:id="rId24"/>
+    <sheet name="用户退出登录接口" sheetId="29" r:id="rId25"/>
+    <sheet name="获取用户粉丝列表" sheetId="22" r:id="rId26"/>
+    <sheet name="用户登录" sheetId="28" r:id="rId27"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="290">
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -91,9 +103,6 @@
     <t>{"username":"liuy", "password":"a12345678"}</t>
   </si>
   <si>
-    <t>5位长度的用户名登录成功</t>
-  </si>
-  <si>
     <t>http://118.24.105.78:2333/showversion</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,10 +115,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"username":"liuyu111111111111111111111111111111", "password":"a12345678"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>不存在的用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -124,10 +129,6 @@
     <t>http://118.24.105.78:2335/login</t>
   </si>
   <si>
-    <t>{"username":"yangk1eliang", "password":"a1234567"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://118.24.105.78:2333/get_title_img</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -646,6 +647,506 @@
   </si>
   <si>
     <t>http://118.24.105.78:2333/getmblist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取标签列表，type=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/gettaglist?type=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取标签列表，type=1</t>
+  </si>
+  <si>
+    <t>获取标签列表，type=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/gettaglist?type=1</t>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/gettaglist?type=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取标签列表，type=4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取标签列表，type=a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取标签列表，type=null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/gettaglist?type=a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/gettaglist?type=null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/gettaglist?type=4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取标签列表，type=小数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/gettaglist?type=1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索成功，类型1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/search?type=1&amp;value=张三&amp;pagenum=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/search?type=2&amp;value=张三&amp;pagenum=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/search?type=3&amp;value=张三&amp;pagenum=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/search?type=4&amp;value=张三&amp;pagenum=4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/search?type=0&amp;value=为什么要学习测试&amp;pagenum=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/search?type=0&amp;value=&amp;pagenum=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索成功.类型为0，搜索对象存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/search?type=0&amp;value=为&amp;pagenum=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/search?type=0&amp;value=为什么要学习测试&amp;pagenum=1000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索失败.类型为0，搜索对象不存在</t>
+  </si>
+  <si>
+    <t>搜索失败.类型为0，搜索对象存在，页码数过大</t>
+  </si>
+  <si>
+    <t>搜索失败.类型为0，搜索对象存在，页码数为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索失败.类型为null，搜索对象存在，页码数正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索失败.类型为0，搜索对象空，页码数正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/search?type=&amp;value=为什么要学习测试&amp;pagenum=1000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/search?type=0&amp;value=为什么要学习测试&amp;pagenum=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索失败.类型为不存在，搜索对象存在，页码数正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/search?type=6&amp;value=为什么要学习测试&amp;pagenum=1000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索成功，类型2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索成功，类型3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索成功，类型4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索成功.搜索对象存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索失败.uid为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索失败.uid为小数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索失败.uid为字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/get/userinfo?uid=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/get/userinfo?uid=1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/get/userinfo?uid=a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索失败.uid不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/get/userinfo?uid=10000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/get/userinfo?uid=1333339180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/userinspirer?uid=133&amp;pagenum=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/userinspirer?uid=&amp;pagenum=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索失败.页码过大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/userinspirer?uid=a&amp;pagenum=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索失败.页码为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索失败.页码为字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索失败.页码为小数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/userinspirer?uid=316&amp;pagenum=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/userinspirer?uid=316&amp;pagenum=1000000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/userinspirer?uid=316&amp;pagenum=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/userinspirer?uid=316&amp;pagenum=a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/userinspirer?uid=316&amp;pagenum=1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/userarticle?uid=262&amp;pagenum=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/userarticle?uid=2621111111111&amp;pagenum=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/userarticle?uid=&amp;pagenum=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/userarticle?uid=a&amp;pagenum=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/userarticle?uid=262&amp;pagenum=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/userarticle?uid=262&amp;pagenum=q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/userarticle?uid=262&amp;pagenum=1000000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/userarticle?uid=262&amp;pagenum=1.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/userquestions?uid=251&amp;pagenum=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/userquestions?uid=2511111111111&amp;pagenum=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/userquestions?uid=&amp;pagenum=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/userquestions?uid=a&amp;pagenum=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/userquestions?uid=251&amp;pagenum=1000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/userquestions?uid=251&amp;pagenum=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/userquestions?uid=251&amp;pagenum=a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/userquestions?uid=251&amp;pagenum=1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/getuserfollows?uid=250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/getuserfollows?uid=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/getuserfollows?uid=2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/getuserfollows?uid=a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/getuserfollows?uid=25000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/getuserfens?uid=251</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/getuserdt?uid=251&amp;pagenum=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/getuserfens?uid=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/getuserfens?uid=2.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/getuserfens?uid=a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/getuserfens?uid=25111111111111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/getuserdt?uid=2511111111111&amp;pagenum=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/getuserdt?uid=&amp;pagenum=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/getuserdt?uid=a&amp;pagenum=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/getuserdt?uid=251&amp;pagenum=1111111111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/getuserdt?uid=251&amp;pagenum=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/getuserdt?uid=251&amp;pagenum=a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/getuserdt?uid=251&amp;pagenum=1.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找回密码成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/userfindps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"username":"ykl1234", "password":"aa1234567", "mb":{ "1":"lj","2":"lj","3":"lj"}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13位长度的用户名登录失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"username":"liuyu11111111", "password":"a12345678"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"username":"yak1eliang", "password":"a1234567"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"username":"yangkeliang", "password":"a121134567"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"username":"", "password":"a1234567"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名存在，密码为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"username":"yangkeliang", "password":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找回密码失败，新密码太长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找回密码失败，新密码太短</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找回密码失败，新密码无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找回密码失败，账号名不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找回密码失败，密保1没填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找回密码失败，密保2没填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找回密码失败，密保3没填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找回密码失败，密保1错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找回密码失败，密保2错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找回密码失败，密保3错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"username":"ykl1234", "password":"aa1211111111111111111111111134567", "mb":{ "1":"lj","2":"lj","3":"lj"}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"username":"ykl1234", "password":"aa", "mb":{ "1":"lj","2":"lj","3":"lj"}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"username":"ykl1234", "password":"", "mb":{ "1":"lj","2":"lj","3":"lj"}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"username":"yklnmb1234", "password":"aa1234567", "mb":{ "1":"lj","2":"lj","3":"lj"}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"username":"ykl1234", "password":"aa1234567", "mb":{ "1":"","2":"lj","3":"lj"}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"username":"ykl1234", "password":"aa1234567", "mb":{ "1":"lj","2":"","3":"lj"}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"username":"ykl1234", "password":"aa1234567", "mb":{ "1":"lj","2":"lj","3":""}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"username":"ykl1234", "password":"aa1234567", "mb":{ "1":"lj1","2":"lj","3":"lj"}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"username":"ykl1234", "password":"aa1234567", "mb":{ "1":"lj","2":"lj1","3":"lj"}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"username":"ykl1234", "password":"aa1234567", "mb":{ "1":"lj","2":"lj","3":"lj1"}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/logout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/json","token":"sjhdsajkdsakjd"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1038,10 +1539,10 @@
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -1098,16 +1599,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -1121,16 +1622,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" t="s">
         <v>144</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" t="s">
-        <v>147</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -1144,16 +1645,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" t="s">
         <v>145</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" t="s">
-        <v>148</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -1167,16 +1668,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" t="s">
         <v>146</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" t="s">
-        <v>149</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
@@ -1190,16 +1691,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -1213,16 +1714,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -1236,16 +1737,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
@@ -1259,16 +1760,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -1282,16 +1783,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -1305,16 +1806,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -1328,16 +1829,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E12" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
@@ -1351,16 +1852,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
@@ -1425,16 +1926,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G2">
         <v>200</v>
@@ -1445,16 +1946,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G3">
         <v>401</v>
@@ -1465,16 +1966,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G4">
         <v>401</v>
@@ -1485,16 +1986,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G5">
         <v>401</v>
@@ -1505,16 +2006,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G6">
         <v>401</v>
@@ -1525,16 +2026,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G7">
         <v>401</v>
@@ -1559,7 +2060,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1592,13 +2093,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -1655,16 +2156,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G2">
         <v>200</v>
@@ -1675,16 +2176,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G3">
         <v>401</v>
@@ -1695,16 +2196,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G4">
         <v>401</v>
@@ -1715,16 +2216,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G5">
         <v>401</v>
@@ -1735,16 +2236,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G6">
         <v>401</v>
@@ -1755,16 +2256,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G7">
         <v>401</v>
@@ -1822,13 +2323,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -1842,13 +2343,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -1862,13 +2363,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -1882,13 +2383,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
@@ -1902,13 +2403,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -1922,13 +2423,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -1955,8 +2456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB9D085-70BB-46D6-8695-6100C4D92D15}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1989,13 +2490,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -2028,12 +2529,806 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21174D7A-05FC-430E-B02C-BEAB889229DE}">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39331E9E-B9B5-4C00-8996-559E1BB24372}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{B23224E7-466E-47BB-B9EA-F34004D2B313}"/>
+    <hyperlink ref="C3:C4" r:id="rId2" display="http://118.24.105.78:2333/gettaglist?type=0" xr:uid="{7C9AD139-404A-4881-9576-ECD1892A2F86}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{0120B47E-24DA-4E67-9585-6B4CBE3716E1}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{7AC03B61-5961-43DF-BA28-2B91708AE1FB}"/>
+    <hyperlink ref="C6:C7" r:id="rId5" display="http://118.24.105.78:2333/gettaglist?type=3" xr:uid="{D7478AA4-8AD4-4F2F-A425-2C01039353EC}"/>
+    <hyperlink ref="C6" r:id="rId6" xr:uid="{2D8B80DE-2E78-4B2F-8682-B0C3392CDBDB}"/>
+    <hyperlink ref="C7" r:id="rId7" xr:uid="{3B4FD740-1399-4231-ACF0-5250F21CC25F}"/>
+    <hyperlink ref="C8" r:id="rId8" xr:uid="{EAC93A45-1218-4ED8-9146-6915169CC53B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01068104-BD8A-473D-94B2-D6685B70BD69}">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{E49C9C5E-1E51-411F-969F-833268F68092}"/>
+    <hyperlink ref="C9" r:id="rId2" xr:uid="{1C6375BA-79BA-4F52-8CD9-9D175A6797D0}"/>
+    <hyperlink ref="C10:C12" r:id="rId3" display="http://118.24.105.78:2333/search?type=1&amp;value=张三&amp;pagenum=1" xr:uid="{C705432B-7650-4900-BFAD-8F7EE0F73428}"/>
+    <hyperlink ref="C10" r:id="rId4" xr:uid="{19548A26-D6E2-4946-91F7-2071F9AC7F68}"/>
+    <hyperlink ref="C11" r:id="rId5" xr:uid="{3EDF2056-B2EF-462F-863F-7E772049BE89}"/>
+    <hyperlink ref="C12" r:id="rId6" xr:uid="{FF69756C-801F-4813-B754-DBAD8388EF6D}"/>
+    <hyperlink ref="C3" r:id="rId7" xr:uid="{36B294E3-5F4A-4A77-8598-C3BDC23DD6DC}"/>
+    <hyperlink ref="C4" r:id="rId8" xr:uid="{6708AA2D-7F17-4B52-A1F7-98F4EDD89D20}"/>
+    <hyperlink ref="C5" r:id="rId9" xr:uid="{0FA60B71-4109-448A-BFD7-14609E7F9215}"/>
+    <hyperlink ref="C6" r:id="rId10" xr:uid="{F6F68D62-91F7-4354-95CE-FD2ED1F332E3}"/>
+    <hyperlink ref="C7" r:id="rId11" xr:uid="{B1CA85A9-CC0B-445E-895D-80B22C770D0F}"/>
+    <hyperlink ref="C8" r:id="rId12" xr:uid="{D3B6739E-B29E-4A09-A897-0C94953764FD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123BA518-5C2F-4149-A1E1-7DCA7A083CCA}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection sqref="A1:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{8DBAE965-2886-4E14-84CD-893ACE4C27C8}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{0F520ED3-320F-4801-9815-50840CB31C77}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{59BA64E1-8BF9-4C5A-AF39-FA203AFC9219}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{B2F2338A-95D2-4F26-819A-C148CA605E06}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{CFF74762-4F88-4FC2-B44B-32ED1231037F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{082512EB-1F35-4A6F-8E5B-915656838206}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{94A857E4-436F-4B62-9809-1E98B202B7FA}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{3ACCDF6D-B320-49CD-B950-D2E7349E75E0}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{A56773D4-883F-4F3E-BF45-A462894B3E08}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{5EF31EAB-464B-4D6B-AFFB-BC833709A0CC}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{48F2D63A-B7F2-4E34-BCAD-4B88F9494392}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{2FB36409-8A3B-44FB-BC63-72630E0A91F6}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{78EDB363-D04B-4C08-8C3A-C036B0E3C747}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{8E74A8A6-2191-4AEE-8288-ED414EA5A9D7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21174D7A-05FC-430E-B02C-BEAB889229DE}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2041,7 +3336,7 @@
     <col min="2" max="2" width="33.109375" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
     <col min="5" max="5" width="51.88671875" customWidth="1"/>
-    <col min="6" max="6" width="21.21875" customWidth="1"/>
+    <col min="6" max="6" width="41.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2081,7 +3376,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -2118,7 +3413,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>259</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -2127,7 +3422,7 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>260</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -2141,16 +3436,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>23</v>
+        <v>261</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>11</v>
@@ -2164,19 +3459,1316 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="3">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{875D4495-9313-4E35-A3D8-1168D5BE3682}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{5857A7C4-C56C-4F03-94F3-B2C46C89700B}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{B2D8C895-2DBA-4845-9273-2C693AFF4137}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{B19813B1-3A7D-4B9A-B7D5-691B09F186C2}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{B7DA001C-FAC0-4AD7-A6EC-9550C1CA3C19}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{62ECCF22-601A-4B9D-8CFC-7E88F161CC4E}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{604949BE-3736-4478-A1B2-D70C314F8890}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{460C22A5-BFA7-41F2-92A8-B6AA4AFCBA97}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{A2BA628D-0658-42CC-A33B-C091C357E1A1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B3AE14-241C-4186-8F1F-14E98DF2DDFF}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{585D964A-D2C8-4FC5-A5E3-2923710CE7A4}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{5535A4D5-759C-4CE5-B2C3-713032491FE3}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{C5B30A49-7E54-44F5-BB0F-8166D3FB80D4}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{801D8328-881A-4AD6-A1BC-2217A53D2EA8}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{7EAF6F81-55FA-4BDB-AE67-85C489EC8C85}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{DC5F2D04-0FDF-46F0-9F6A-D214008229F9}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{CFE751B4-AD4D-4398-B223-5ED90CC142CA}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{4458CC73-FE92-49F5-949C-CCE4282C2AE7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B1F087-BE92-4258-BF66-251F1153A4E4}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{FAC4B4E3-0A08-4B1E-B340-4FFEE59AEDA3}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{9BA8C481-82FF-41ED-AE9D-829697171640}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{CFAB2693-7B6D-47C5-BA07-63CF3600C8DA}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{FAD82983-072E-41BB-B893-34F71F61824C}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{C3CB95B9-3257-4C6E-AA72-0FEA976F74D0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27C9C3D-0F68-4152-8927-4CF827865C04}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{77276114-D3F8-4035-923D-7E2AB316A474}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{0FC6052F-C7B3-43D2-A999-B31A0FB4BCC8}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{3366A12C-974A-45B1-AE59-2A25DAC7F193}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{64C3DB5C-397A-4B27-A13E-3592A99F2A1E}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{51F6399A-574D-4BD9-9768-2672964BA845}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{BD479AF6-DA3F-464A-90BE-610074164B5D}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{E9E02703-BAAE-4822-AC08-F2711BA26664}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{854179B9-8E4D-4A97-AD54-E15D7EA69BC2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F249A92-54F5-4720-B1B1-62506EFDF6C2}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" t="s">
+        <v>279</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" t="s">
+        <v>280</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>272</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" t="s">
+        <v>282</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>273</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" t="s">
+        <v>283</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>274</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" t="s">
+        <v>284</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>275</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" t="s">
+        <v>285</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>276</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" t="s">
+        <v>286</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{9F2D3B47-3AA0-4E8F-B3C8-6E952A31E083}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{A9228BAB-E866-4A66-8EE9-E669697D6BBC}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{AAB03864-54AD-48B9-BF3D-8CD4D224C97F}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{581470D7-9F9B-4762-8CE5-B2EE974654A9}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{E6AC6D13-33E6-4535-9910-90C0BF313E09}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{23EB48D1-F7AE-4DB8-8191-510101A7A609}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{CB9C9C6A-CEA7-42C4-A4AB-B70021B4E8C2}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{65588408-834E-4181-AC8D-0148B72D5C3E}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{EBFCCCC0-577C-4197-9336-56D0419B7AE1}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{9A48C0F8-5BA0-4C05-BDF2-5C43470027B3}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{13E5C9CC-4CA9-4256-8F0A-D9E61339265A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29417A5A-8022-4F6F-A37F-FCCFF3B2C0DE}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J24" sqref="I24:J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G2">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{D3F47D75-64AB-46AA-B93F-88EFA8483FCE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F5A857-F3C4-4A2E-A5AC-2499881826A9}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{8E6042BC-BEBA-4047-B8BC-BE797554964F}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{5BD1B88C-3189-452E-9B4B-CEAC7683481B}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{F709F6E5-9AA9-4642-AB71-9A6D7B0008FB}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{BBCC7610-AA62-4058-8EA3-A4E8577BD865}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{4DCB7EE1-1EEC-4569-8758-488CEE3E6B4F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B19525-8C35-43D5-9901-2A144801EB69}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2221,13 +4813,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -2241,13 +4833,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -2261,13 +4853,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -2281,13 +4873,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
@@ -2301,13 +4893,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -2321,13 +4913,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -2391,16 +4983,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G2">
         <v>200</v>
@@ -2411,16 +5003,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G3">
         <v>401</v>
@@ -2431,16 +5023,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G4">
         <v>401</v>
@@ -2451,16 +5043,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G5">
         <v>401</v>
@@ -2471,16 +5063,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G6">
         <v>401</v>
@@ -2491,16 +5083,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G7">
         <v>401</v>
@@ -2559,13 +5151,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -2579,13 +5171,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -2599,13 +5191,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -2619,13 +5211,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
@@ -2639,13 +5231,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -2659,13 +5251,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -2693,7 +5285,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2726,16 +5318,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -2749,16 +5341,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -2772,16 +5364,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" t="s">
         <v>79</v>
-      </c>
-      <c r="E4" t="s">
-        <v>82</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -2795,16 +5387,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
@@ -2818,16 +5410,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -2841,16 +5433,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -2864,16 +5456,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
@@ -2887,16 +5479,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -2910,16 +5502,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -2933,16 +5525,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -2956,16 +5548,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
@@ -2979,16 +5571,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
@@ -3002,16 +5594,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
@@ -3025,16 +5617,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" t="s">
         <v>105</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" t="s">
-        <v>108</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
@@ -3048,16 +5640,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F16" t="s">
         <v>11</v>
@@ -3130,16 +5722,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G2">
         <v>200</v>
@@ -3150,16 +5742,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G3">
         <v>401</v>
@@ -3170,16 +5762,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G4">
         <v>401</v>
@@ -3190,16 +5782,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G5">
         <v>401</v>
@@ -3210,16 +5802,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G6">
         <v>401</v>
@@ -3230,16 +5822,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G7">
         <v>401</v>
@@ -3298,13 +5890,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -3318,13 +5910,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -3338,13 +5930,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -3358,13 +5950,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
@@ -3378,13 +5970,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -3398,13 +5990,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -3465,13 +6057,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -3485,13 +6077,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -3505,13 +6097,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -3525,13 +6117,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
@@ -3545,13 +6137,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -3565,13 +6157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>

--- a/测谈网接口自动化1/data/测谈网接口测试用例.xlsx
+++ b/测谈网接口自动化1/data/测谈网接口测试用例.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\project\interface-test\测谈网接口自动化1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64874660-0CAC-41E0-B416-5691A49D5592}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A067006B-8C20-44DA-8747-A6AB41272265}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="791" firstSheet="16" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="791" firstSheet="38" activeTab="45" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="获取版本" sheetId="1" r:id="rId1"/>
@@ -38,8 +38,27 @@
     <sheet name="获取用户动态列表" sheetId="24" r:id="rId23"/>
     <sheet name="找回密码" sheetId="25" r:id="rId24"/>
     <sheet name="用户退出登录接口" sheetId="29" r:id="rId25"/>
-    <sheet name="获取用户粉丝列表" sheetId="22" r:id="rId26"/>
-    <sheet name="用户登录" sheetId="28" r:id="rId27"/>
+    <sheet name="用户修改密码接口" sheetId="30" r:id="rId26"/>
+    <sheet name="获取用户粉丝列表" sheetId="22" r:id="rId27"/>
+    <sheet name="用户设置密保接口" sheetId="32" r:id="rId28"/>
+    <sheet name="用户提问接口" sheetId="33" r:id="rId29"/>
+    <sheet name="用户修改提问接口" sheetId="34" r:id="rId30"/>
+    <sheet name="用户删除提问接口" sheetId="36" r:id="rId31"/>
+    <sheet name="用户发表灵感接口" sheetId="37" r:id="rId32"/>
+    <sheet name="用户修改灵感接口" sheetId="38" r:id="rId33"/>
+    <sheet name="用户删除灵感接口" sheetId="39" r:id="rId34"/>
+    <sheet name="用户写文章接口" sheetId="40" r:id="rId35"/>
+    <sheet name="用户修改文章接口" sheetId="41" r:id="rId36"/>
+    <sheet name="用户删除文章接口" sheetId="42" r:id="rId37"/>
+    <sheet name="修改个人资料接口" sheetId="43" r:id="rId38"/>
+    <sheet name="修改个人头像接口" sheetId="44" r:id="rId39"/>
+    <sheet name="修改个人title图接口" sheetId="45" r:id="rId40"/>
+    <sheet name="点赞取消点赞接口接口" sheetId="46" r:id="rId41"/>
+    <sheet name="收藏取消收藏接口接口" sheetId="47" r:id="rId42"/>
+    <sheet name="关注取消关注接口" sheetId="48" r:id="rId43"/>
+    <sheet name="评论接口" sheetId="49" r:id="rId44"/>
+    <sheet name="修改评论接口" sheetId="51" r:id="rId45"/>
+    <sheet name="删除评论接口" sheetId="52" r:id="rId46"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -51,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="494">
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -111,10 +130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"username":"yangkeliang", "password":"a1234567"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>不存在的用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -419,10 +434,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"username":"ykl1234", "password":"a1234567", "phone":"18811112222", "email":"1959733096@qq.com" }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>注册失败，账号已存在</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1022,10 +1033,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"username":"ykl1234", "password":"aa1234567", "mb":{ "1":"lj","2":"lj","3":"lj"}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>13位长度的用户名登录失败</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1110,34 +1117,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"username":"yklnmb1234", "password":"aa1234567", "mb":{ "1":"lj","2":"lj","3":"lj"}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"username":"ykl1234", "password":"aa1234567", "mb":{ "1":"","2":"lj","3":"lj"}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"username":"ykl1234", "password":"aa1234567", "mb":{ "1":"lj","2":"","3":"lj"}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"username":"ykl1234", "password":"aa1234567", "mb":{ "1":"lj","2":"lj","3":""}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"username":"ykl1234", "password":"aa1234567", "mb":{ "1":"lj1","2":"lj","3":"lj"}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"username":"ykl1234", "password":"aa1234567", "mb":{ "1":"lj","2":"lj1","3":"lj"}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"username":"ykl1234", "password":"aa1234567", "mb":{ "1":"lj","2":"lj","3":"lj1"}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>退出成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1147,6 +1126,798 @@
   </si>
   <si>
     <t>{"Content-Type":"application/json","token":"sjhdsajkdsakjd"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码失败，老密码错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码失败，新密码不符合规范</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/userupdateps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"oldps":"a1234567","newps":"a123456781111111111111111111"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/json","token":"sjhdsajkdsakjd"}</t>
+  </si>
+  <si>
+    <t>{"oldps":"a12345678","newps":"a1234567"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"username":"jglykl", "password":"a12345678", "phone":"18811112022", "email":"1919733096@qq.com" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"username":"jglykl", "password":"a12345678"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"username":"jglykl", "password":"a12345678", "mb":{ "1":"lj","2":"lj","3":"lj"}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"oldps":"a12345671111","newps":"a12345678"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"username":"yklnmb1234", "password":"aa12345678", "mb":{ "1":"lj","2":"lj","3":"lj"}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"username":"ykl1234", "password":"aa12345678", "mb":{ "1":"","2":"lj","3":"lj"}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"username":"ykl1234", "password":"aa12345678", "mb":{ "1":"lj","2":"","3":"lj"}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"username":"ykl1234", "password":"aa12345678", "mb":{ "1":"lj","2":"lj","3":""}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"username":"ykl1234", "password":"aa12345678", "mb":{ "1":"lj1","2":"lj","3":"lj"}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"username":"ykl1234", "password":"aa12345678", "mb":{ "1":"lj","2":"lj1","3":"lj"}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"username":"ykl1234", "password":"aa12345678", "mb":{ "1":"lj","2":"lj","3":"lj1"}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/usersertmb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置密保成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"password":"a12345678", 
+"mb":{"2":"lj","3":"lj"}
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置密保成功，缺一个参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/question/new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户提问接口成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户提问接口失败，tag3个字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户提问接口失败，tag7个字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"title":"为什么要学习测试","content":"内容", "tags":"测试欢", "brief":"介绍", "ximg":"dsfsdf.jpg"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"title":"为什么要学习测试","content":"内容", "tags":"测试啊啊啊欢欢", "brief":"介绍", "ximg":"dsfsdf.jpg"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"title":"为什么要学习测试啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊","content":"内容啊啊啊啊啊啊啊啊啊啊啊啊", "tags":"测试欢欢", "brief":"介水水水水水水水水水水绍", "ximg":"dsfsdf.jpg"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"password":"a12345678", 
+"mb":{"1":"lj","2":"lj","3":"lj"}
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户修改提问接口成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/question/update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户修改提问接口失败，tag3个字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户修改提问接口失败，tag7个字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"title":"为啊啊啊啊啊","content":"内容啊啊啊啊", "tags":"测试欢欢", "brief":"介水水水水水绍", "qid":1,"ximg":"dsfsdf.jpg"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"title":"为什么要学习测试","content":"内容", "tags":"测试欢", "brief":"介绍", "qid":1,"ximg":"dsfsdf.jpg"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"title":"为什么要学习测试","content":"内容", "tags":"测试啊啊啊欢欢", "brief":"介绍","qid":1, "ximg":"dsfsdf.jpg"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户删除提问接口成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/question/delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "qid":1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "qid":"a"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户删除提问接口失败，qid为字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户删除提问接口失败，qid不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "qid":"1"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户删除提问接口失败，qid为小数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户删除提问接口失败，qid为负数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "qid":"1.5"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "qid":"-1"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/inspirer/new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户发表灵感成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"content":"内容123", "ximg":"dsfsdf.jpg" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户修改灵感接口成功</t>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/inspirer/update</t>
+  </si>
+  <si>
+    <t>{ "content":"内容",  "ximg":"dsfsdf.jpg", "iid":1 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户修改灵感接口失败，iid不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户修改灵感接口失败，iid为字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户修改灵感接口失败，iid为小数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户修改灵感接口失败，iid为负数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "content":"内容",  "ximg":"dsfsdf.jpg", "iid":"a" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "content":"内容",  "ximg":"dsfsdf.jpg", "iid":1.2 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "content":"内容",  "ximg":"dsfsdf.jpg", "iid":-1 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户修改提问接口失败，qid为字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户修改提问接口失败，qid为小数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户修改提问接口失败，qid为负数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"title":"为啊啊啊啊啊","content":"内容啊啊啊啊", "tags":"测试欢欢", "brief":"介水水水水水绍", "qid":-1,"ximg":"dsfsdf.jpg"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"title":"为啊啊啊啊啊","content":"内容啊啊啊啊", "tags":"测试欢欢", "brief":"介水水水水水绍", "qid":1.5,"ximg":"dsfsdf.jpg"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"title":"为啊啊啊啊啊","content":"内容啊啊啊啊", "tags":"测试欢欢", "brief":"介水水水水水绍", "qid":"a","ximg":"dsfsdf.jpg"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/inspirer/delete</t>
+  </si>
+  <si>
+    <t>用户删除灵感接口成功</t>
+  </si>
+  <si>
+    <t>{ "iid":1}</t>
+  </si>
+  <si>
+    <t>用户删除灵感接口失败，iid为字符</t>
+  </si>
+  <si>
+    <t>{ "iid":"a"}</t>
+  </si>
+  <si>
+    <t>用户删除灵感接口失败，iid不存在</t>
+  </si>
+  <si>
+    <t>{ "iid":"1"}</t>
+  </si>
+  <si>
+    <t>用户删除灵感接口失败，iid为小数</t>
+  </si>
+  <si>
+    <t>{ "iid":"1.5"}</t>
+  </si>
+  <si>
+    <t>用户删除灵感接口失败，iid为负数</t>
+  </si>
+  <si>
+    <t>{ "iid":"-1"}</t>
+  </si>
+  <si>
+    <t>用户写文章成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/article/new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"title":"为什么要学习测试", "content":"内容", "tags":"测试理论", "brief":"介绍", "ximg":"dsfsdf.jpg" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户写文章失败，tag3个字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户写文章失败，tag7个字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"title":"为什么要学习测试", "content":"内容", "tags":"测试理", "brief":"介绍", "ximg":"dsfsdf.jpg" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"title":"为什么要学习测试", "content":"内容", "tags":"测试理论啦啦啦", "brief":"介绍", "ximg":"dsfsdf.jpg" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/article/update</t>
+  </si>
+  <si>
+    <t>{"title":"为啊啊啊啊啊","content":"内容啊啊啊啊", "tags":"测试欢欢", "brief":"介水水水水水绍", "aid":1,"ximg":"dsfsdf.jpg"}</t>
+  </si>
+  <si>
+    <t>{"title":"为什么要学习测试","content":"内容", "tags":"测试欢", "brief":"介绍", "aid":1,"ximg":"dsfsdf.jpg"}</t>
+  </si>
+  <si>
+    <t>{"title":"为什么要学习测试","content":"内容", "tags":"测试啊啊啊欢欢", "brief":"介绍","aid":1, "ximg":"dsfsdf.jpg"}</t>
+  </si>
+  <si>
+    <t>{"title":"为啊啊啊啊啊","content":"内容啊啊啊啊", "tags":"测试欢欢", "brief":"介水水水水水绍", "aid":"a","ximg":"dsfsdf.jpg"}</t>
+  </si>
+  <si>
+    <t>{"title":"为啊啊啊啊啊","content":"内容啊啊啊啊", "tags":"测试欢欢", "brief":"介水水水水水绍", "aid":1.5,"ximg":"dsfsdf.jpg"}</t>
+  </si>
+  <si>
+    <t>{"title":"为啊啊啊啊啊","content":"内容啊啊啊啊", "tags":"测试欢欢", "brief":"介水水水水水绍", "aid":-1,"ximg":"dsfsdf.jpg"}</t>
+  </si>
+  <si>
+    <t>用户删除文章接口成功</t>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/article/delete</t>
+  </si>
+  <si>
+    <t>用户删除文章接口失败，aid为字符</t>
+  </si>
+  <si>
+    <t>{ "aid":"a"}</t>
+  </si>
+  <si>
+    <t>用户删除文章接口失败，aid不存在</t>
+  </si>
+  <si>
+    <t>{ "aid":"1"}</t>
+  </si>
+  <si>
+    <t>用户删除文章接口失败，aid为小数</t>
+  </si>
+  <si>
+    <t>{ "aid":"1.5"}</t>
+  </si>
+  <si>
+    <t>用户删除文章接口失败，aid为负数</t>
+  </si>
+  <si>
+    <t>{ "aid":"-1"}</t>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/article/delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "aid":1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/updateuserinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改个人资料失败，手机格式错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改个人资料失败，邮箱格式错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改个人资料失败，性别错误错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"nickname" :"ykl", "phone" :"18888888888","sex" :"男","job" :"fas","email":"1943322421@qq.com","weixin":"ad","qq":"das","userinfo":"fdsa","address" :"af" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改个人资料成功，性别男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"nickname" :"ykl", "phone" :"18888888898","sex" :"男","job" :"fas","email":"1943322421@qq.com","weixin":"ad","qq":"das","userinfo":"fdsa","address" :"af" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改个人资料成功，性别女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改个人资料成功，性别保密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"nickname" :"ykl", "phone" :"18888888898","sex" :"女","job" :"fas","email":"1943322421@qq.com","weixin":"ad","qq":"das","userinfo":"fdsa","address" :"af" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"nickname" :"ykl", "phone" :"18888888898","sex" :"保密","job" :"fas","email":"1943322421@qq.com","weixin":"ad","qq":"das","userinfo":"fdsa","address" :"af" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改个人资料失败，手机重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改个人资料失败，手机为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"nickname" :"ykl", "phone" :"111","sex" :"男","job" :"fas","email":"1943322421@qq.com","weixin":"ad","qq":"das","userinfo":"fdsa","address" :"af" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"nickname" :"ykl", "phone" :"","sex" :"男","job" :"fas","email":"1943322421@qq.com","weixin":"ad","qq":"das","userinfo":"fdsa","address" :"af" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改个人资料失败，邮箱为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"nickname" :"ykl", "phone" :"18888888898","sex" :"男","job" :"fas","email":"","weixin":"ad","qq":"das","userinfo":"fdsa","address" :"af" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"nickname" :"ykl", "phone" :"18888888898","sex" :"男","job" :"fas","email":"111","weixin":"ad","qq":"das","userinfo":"fdsa","address" :"af" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改个人资料失败，性别为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"nickname" :"ykl", "phone" :"18888888898","sex" :"","job" :"fas","email":"1943322421@qq.com","weixin":"ad","qq":"das","userinfo":"fdsa","address" :"af" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"nickname" :"ykl", "phone" :"18888888898","sex" :"ladyboy","job" :"fas","email":"1943322421@qq.com","weixin":"ad","qq":"das","userinfo":"fdsa","address" :"af" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/updateuserheadpic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "ximg" :"头像.jpg" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/updateusertitlepic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/userfellgoods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞成功,ctype0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞成功,ctype1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞成功,ctype2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞成功,ctype3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞失败,ctypenull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞失败,ctype错误类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ctype":"", "gid":1 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ctype":"a", "gid":1 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ctype":"0", "gid":1000000000000000000 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞失败,ctype0，gid不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞失败,ctype1，gid不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞失败,ctype2，gid不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞失败,ctype3，gid不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ctype":"0", "gid":7 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ctype":"1", "gid":661 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ctype":"2", "gid":9369 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ctype":"3", "gid":3}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ctype":"1", "gid":1000000000000000000 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ctype":"2", "gid":1000000000000000000 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ctype":"3", "gid":1000000000000000000 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/usercollections</t>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/usercollections</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ctype":"0", "cid":7 }</t>
+  </si>
+  <si>
+    <t>{"ctype":"1", "cid":661 }</t>
+  </si>
+  <si>
+    <t>{"ctype":"2", "cid":9369 }</t>
+  </si>
+  <si>
+    <t>{"ctype":"3", "cid":3}</t>
+  </si>
+  <si>
+    <t>{"ctype":"", "cid":1 }</t>
+  </si>
+  <si>
+    <t>{"ctype":"a", "cid":1 }</t>
+  </si>
+  <si>
+    <t>{"ctype":"0", "cid":1000000000000000000 }</t>
+  </si>
+  <si>
+    <t>{"ctype":"1", "cid":1000000000000000000 }</t>
+  </si>
+  <si>
+    <t>{"ctype":"2", "cid":1000000000000000000 }</t>
+  </si>
+  <si>
+    <t>{"ctype":"3", "cid":1000000000000000000 }</t>
+  </si>
+  <si>
+    <t>收藏成功,ctype0</t>
+  </si>
+  <si>
+    <t>收藏成功,ctype1</t>
+  </si>
+  <si>
+    <t>收藏成功,ctype2</t>
+  </si>
+  <si>
+    <t>收藏成功,ctype3</t>
+  </si>
+  <si>
+    <t>收藏失败,ctypenull</t>
+  </si>
+  <si>
+    <t>收藏失败,ctype错误类型</t>
+  </si>
+  <si>
+    <t>收藏失败,ctype0，cid不存在</t>
+  </si>
+  <si>
+    <t>收藏失败,ctype1，cid不存在</t>
+  </si>
+  <si>
+    <t>收藏失败,ctype2，cid不存在</t>
+  </si>
+  <si>
+    <t>收藏失败,ctype3，cid不存在</t>
+  </si>
+  <si>
+    <t>关注成功,ctype0</t>
+  </si>
+  <si>
+    <t>关注成功,ctype1</t>
+  </si>
+  <si>
+    <t>关注成功,ctype3</t>
+  </si>
+  <si>
+    <t>关注失败,ctypenull</t>
+  </si>
+  <si>
+    <t>关注失败,ctype错误类型</t>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/userfollows</t>
+  </si>
+  <si>
+    <t>{"ctype":"0", "fid":7 }</t>
+  </si>
+  <si>
+    <t>{"ctype":"1", "fid":661 }</t>
+  </si>
+  <si>
+    <t>{"ctype":"3", "fid":3}</t>
+  </si>
+  <si>
+    <t>{"ctype":"", "fid":1 }</t>
+  </si>
+  <si>
+    <t>{"ctype":"a", "fid":1 }</t>
+  </si>
+  <si>
+    <t>关注失败,ctype0，fid不存在</t>
+  </si>
+  <si>
+    <t>{"ctype":"0", "fid":1000000000000000000 }</t>
+  </si>
+  <si>
+    <t>关注失败,ctype1，fid不存在</t>
+  </si>
+  <si>
+    <t>{"ctype":"1", "fid":1000000000000000000 }</t>
+  </si>
+  <si>
+    <t>关注失败,ctype2，fid不存在</t>
+  </si>
+  <si>
+    <t>{"ctype":"3", "fid":1000000000000000000 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/comment/new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论教程成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论提问成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论灵感成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论心得体会成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ctype":"0", "comment":"评论 内容","fid":7 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ctype":"1", "comment":"评论 内容","fid":661 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ctype":"2", "comment":"评论 内容","fid":9363 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ctype":"3", "comment":"评论 内容","fid":3}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论失败，无类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ctype":"a", "comment":"评论 内容","fid":3}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论教程失败，无id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ctype":"0", "comment":"评论 内容","fid":1000000000000}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论提问失败，无id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论灵感失败，无id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论心得体会失败，无id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ctype":"3", "comment":"评论 内容","fid":10000000000000000}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ctype":"2", "comment":"评论 内容","fid":936311111111111111111 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ctype":"1", "comment":"评论 内容","fid":6611111111111111111111 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.24.105.78:2333/comment/update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改评论，评论存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改评论，评论不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"comment":"评论 内容", "cid":100000000000000000}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"comment":"评论 内容", "cid":27676}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时不写，前端无法返回cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1599,16 +2370,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -1622,16 +2393,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -1645,16 +2416,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -1668,16 +2439,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
@@ -1691,16 +2462,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -1714,16 +2485,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -1737,16 +2508,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" t="s">
         <v>151</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" t="s">
-        <v>153</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
@@ -1760,16 +2531,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" t="s">
         <v>152</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" t="s">
-        <v>154</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -1783,16 +2554,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -1806,16 +2577,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -1829,16 +2600,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" t="s">
         <v>157</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" t="s">
-        <v>159</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
@@ -1852,16 +2623,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
@@ -1926,16 +2697,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2">
         <v>200</v>
@@ -1946,16 +2717,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3">
         <v>401</v>
@@ -1966,16 +2737,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G4">
         <v>401</v>
@@ -1986,16 +2757,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>401</v>
@@ -2006,16 +2777,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>401</v>
@@ -2026,16 +2797,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7">
         <v>401</v>
@@ -2093,10 +2864,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -2156,16 +2927,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2">
         <v>200</v>
@@ -2176,16 +2947,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3">
         <v>401</v>
@@ -2196,16 +2967,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G4">
         <v>401</v>
@@ -2216,16 +2987,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>401</v>
@@ -2236,16 +3007,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>401</v>
@@ -2256,16 +3027,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7">
         <v>401</v>
@@ -2323,10 +3094,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -2343,10 +3114,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -2363,10 +3134,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -2383,10 +3154,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -2403,10 +3174,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -2423,10 +3194,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -2490,10 +3261,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -2567,10 +3338,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -2587,10 +3358,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -2607,10 +3378,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -2627,10 +3398,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -2647,10 +3418,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -2667,10 +3438,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -2687,10 +3458,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -2757,10 +3528,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -2777,10 +3548,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -2797,10 +3568,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -2817,10 +3588,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -2837,10 +3608,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -2857,10 +3628,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -2877,10 +3648,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -2897,10 +3668,10 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -2917,10 +3688,10 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -2937,10 +3708,10 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
@@ -2957,10 +3728,10 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
@@ -3032,10 +3803,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -3052,10 +3823,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -3069,10 +3840,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -3086,10 +3857,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -3103,10 +3874,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -3169,10 +3940,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -3189,10 +3960,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -3206,10 +3977,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -3223,10 +3994,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -3240,10 +4011,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -3257,10 +4028,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -3274,10 +4045,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -3291,10 +4062,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -3328,7 +4099,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3369,14 +4140,14 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
+      <c r="C2" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>288</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -3413,7 +4184,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -3422,7 +4193,7 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -3436,16 +4207,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>11</v>
@@ -3459,16 +4230,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>11</v>
@@ -3479,16 +4250,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>11</v>
@@ -3502,16 +4273,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>11</v>
@@ -3519,8 +4290,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{C6EBB330-14F5-47EC-9521-61F0E4010E04}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3562,10 +4336,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -3582,10 +4356,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -3599,10 +4373,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -3616,10 +4390,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -3633,10 +4407,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -3650,10 +4424,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -3667,10 +4441,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -3684,10 +4458,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -3753,10 +4527,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -3773,10 +4547,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -3790,10 +4564,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -3807,10 +4581,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -3824,10 +4598,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -3841,10 +4615,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -3858,10 +4632,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -3875,10 +4649,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -3911,7 +4685,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3944,10 +4718,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -3964,10 +4738,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -3981,10 +4755,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -3998,10 +4772,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -4015,10 +4789,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -4057,7 +4831,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4090,10 +4864,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -4110,10 +4884,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -4127,10 +4901,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -4144,10 +4918,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -4161,10 +4935,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -4178,10 +4952,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -4195,10 +4969,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -4212,10 +4986,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -4281,16 +5055,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -4304,16 +5078,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -4327,16 +5101,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -4350,16 +5124,16 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
@@ -4373,16 +5147,16 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -4396,16 +5170,16 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E7" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -4419,16 +5193,16 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E8" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
@@ -4442,16 +5216,16 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -4465,16 +5239,16 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -4488,16 +5262,16 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -4511,16 +5285,16 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E12" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
@@ -4553,8 +5327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29417A5A-8022-4F6F-A37F-FCCFF3B2C0DE}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="I24:J24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4587,16 +5361,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="G2">
         <v>200</v>
@@ -4612,11 +5386,11 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F5A857-F3C4-4A2E-A5AC-2499881826A9}">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B65FE8-614B-4D49-8393-1ABC073F8BF5}">
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4649,10 +5423,121 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>243</v>
+        <v>283</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
+        <v>286</v>
+      </c>
+      <c r="F2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>290</v>
+      </c>
+      <c r="F3" t="s">
+        <v>279</v>
+      </c>
+      <c r="G3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>284</v>
+      </c>
+      <c r="F4" t="s">
+        <v>279</v>
+      </c>
+      <c r="G4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{0DB67987-6E8A-44CC-ABB6-F9537D7EDEBD}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{E419DB65-0F5E-487E-B837-9BEEDBC189AC}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{96501879-8A78-45F5-B62C-766EAFDCBAF1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F5A857-F3C4-4A2E-A5AC-2499881826A9}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>241</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -4669,10 +5554,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -4686,10 +5571,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -4703,10 +5588,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -4720,10 +5605,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -4757,17 +5642,198 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B19525-8C35-43D5-9901-2A144801EB69}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D321AB0-D118-446D-952F-F136DC6BED0E}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G3">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{25229DF1-0A74-473B-AF32-846D2261FB4B}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{62DBC49B-ED7B-4125-BA18-FA11C5680DCA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F29A42A-F345-4AE3-B5F5-CC5DD9C51395}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>307</v>
+      </c>
+      <c r="F4" t="s">
+        <v>285</v>
+      </c>
+      <c r="G4">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{6C87776D-4D55-425F-BDBD-27D599E26D54}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{D9DA952A-94E2-4C51-94A1-23E27E31C528}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{455320FF-CD28-4B9E-81D0-233190BE2548}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4813,10 +5879,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -4833,10 +5899,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -4853,10 +5919,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -4873,10 +5939,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -4893,10 +5959,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -4913,10 +5979,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -4937,6 +6003,1499 @@
     <hyperlink ref="C5" r:id="rId4" xr:uid="{4F7AD6D8-71DF-41E3-92A8-85336E410C35}"/>
     <hyperlink ref="C6" r:id="rId5" xr:uid="{8E84D549-F296-4137-A5D8-825C7072C418}"/>
     <hyperlink ref="C7" r:id="rId6" xr:uid="{7C6FEC0A-C9C5-43C5-A6A3-69361EC6A40D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D22E012F-13E0-4C0A-93C0-0192C6214564}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>316</v>
+      </c>
+      <c r="F3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>317</v>
+      </c>
+      <c r="F4" t="s">
+        <v>285</v>
+      </c>
+      <c r="G4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F5" t="s">
+        <v>285</v>
+      </c>
+      <c r="G5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" t="s">
+        <v>346</v>
+      </c>
+      <c r="F6" t="s">
+        <v>285</v>
+      </c>
+      <c r="G6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>344</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G7">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{50692CBE-6DFC-4D71-A0FF-657F109A0FC9}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{6B7BE42A-CB99-4261-A618-C98BBA454B02}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{8D700FD6-0747-4530-89EC-968451AFAF08}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{D297E0C4-CADD-4EC5-9357-B1248D5C28BA}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{6509B471-D0E5-42E4-B236-8EA14D55D72C}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{B9880723-CC4C-415D-B3F2-551484B90543}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D00E73-0E21-4E9F-8BB6-12107BA9DC56}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>321</v>
+      </c>
+      <c r="F3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>324</v>
+      </c>
+      <c r="F4" t="s">
+        <v>285</v>
+      </c>
+      <c r="G4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" t="s">
+        <v>327</v>
+      </c>
+      <c r="F5" t="s">
+        <v>285</v>
+      </c>
+      <c r="G5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>326</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" t="s">
+        <v>328</v>
+      </c>
+      <c r="F6" t="s">
+        <v>285</v>
+      </c>
+      <c r="G6">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{22D9A16D-7466-4BF0-87F8-3247BB64EC5B}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{EE6F48B5-5270-4C5F-A981-C9B7BC9EA4DA}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{78802B09-AE10-479C-9682-7DEA69F4FBE5}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{CCA69B0C-01D0-44E3-8C23-399F9E22A75C}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{95603527-920E-4AD2-9D94-8CBF2C6CE88B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A0EFC5-E044-4191-B6EC-23EAFB74B778}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{A85940B7-D6BD-4DE7-A469-052E54FC8F11}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4098730B-EA0E-47FB-B908-411F263AAEC3}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>334</v>
+      </c>
+      <c r="F3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>339</v>
+      </c>
+      <c r="F4" t="s">
+        <v>285</v>
+      </c>
+      <c r="G4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" t="s">
+        <v>340</v>
+      </c>
+      <c r="F5" t="s">
+        <v>285</v>
+      </c>
+      <c r="G5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>338</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" t="s">
+        <v>341</v>
+      </c>
+      <c r="F6" t="s">
+        <v>285</v>
+      </c>
+      <c r="G6">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="http://118.24.105.78:2333/question/update" xr:uid="{0044FC2E-2772-47E4-B2F0-D765621DC10D}"/>
+    <hyperlink ref="C3" r:id="rId2" display="http://118.24.105.78:2333/question/update" xr:uid="{1E31DDFF-F60D-4B27-9CF7-21200FB81196}"/>
+    <hyperlink ref="C4" r:id="rId3" display="http://118.24.105.78:2333/question/update" xr:uid="{250C25AF-6384-467F-B5C7-64D79FBAF23B}"/>
+    <hyperlink ref="C5" r:id="rId4" display="http://118.24.105.78:2333/question/update" xr:uid="{1C13BDD3-0160-4382-ADCE-F1BB2276CE06}"/>
+    <hyperlink ref="C6" r:id="rId5" display="http://118.24.105.78:2333/question/update" xr:uid="{888476DA-5629-4363-AB71-135AE5973DEF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B09D17A4-AB65-4153-9267-1212C0392AD5}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>352</v>
+      </c>
+      <c r="F3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F4" t="s">
+        <v>285</v>
+      </c>
+      <c r="G4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>355</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" t="s">
+        <v>356</v>
+      </c>
+      <c r="F5" t="s">
+        <v>285</v>
+      </c>
+      <c r="G5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>357</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" t="s">
+        <v>358</v>
+      </c>
+      <c r="F6" t="s">
+        <v>285</v>
+      </c>
+      <c r="G6">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="http://118.24.105.78:2333/question/delete" xr:uid="{898DFC82-6B7A-4593-8496-6D65C4B70307}"/>
+    <hyperlink ref="C3" r:id="rId2" display="http://118.24.105.78:2333/question/delete" xr:uid="{AE73DB59-9B3E-4787-918C-DD3352EB9C23}"/>
+    <hyperlink ref="C4" r:id="rId3" display="http://118.24.105.78:2333/question/delete" xr:uid="{3E25D816-97DE-48DA-8745-3BC8616CE26E}"/>
+    <hyperlink ref="C5" r:id="rId4" display="http://118.24.105.78:2333/question/delete" xr:uid="{84610E6D-2C98-44A7-B57B-DC7AF6301699}"/>
+    <hyperlink ref="C6" r:id="rId5" display="http://118.24.105.78:2333/question/delete" xr:uid="{47597649-E35F-4B98-82CD-BDE579FD92FC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A0F283E-4828-4679-9F26-AE00CB2E414C}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
+        <v>361</v>
+      </c>
+      <c r="F2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>364</v>
+      </c>
+      <c r="F3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>363</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>365</v>
+      </c>
+      <c r="F4" t="s">
+        <v>285</v>
+      </c>
+      <c r="G4">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{83430781-C66F-494A-8440-29A4D20CB68B}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{04303C7F-4689-4FB8-ABEF-79F65BBB6DFE}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{84AAEFB8-F8C0-482E-AF6D-A16BB75549D6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2956AAC0-6BB6-4CE3-B641-2F8C08678E28}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
+        <v>367</v>
+      </c>
+      <c r="F2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>369</v>
+      </c>
+      <c r="F4" t="s">
+        <v>285</v>
+      </c>
+      <c r="G4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" t="s">
+        <v>370</v>
+      </c>
+      <c r="F5" t="s">
+        <v>285</v>
+      </c>
+      <c r="G5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" t="s">
+        <v>371</v>
+      </c>
+      <c r="F6" t="s">
+        <v>285</v>
+      </c>
+      <c r="G6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>344</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" t="s">
+        <v>372</v>
+      </c>
+      <c r="F7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G7">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="http://118.24.105.78:2333/question/update" xr:uid="{EE25A76D-2C0F-40BA-B90A-0C2C47D998BC}"/>
+    <hyperlink ref="C3" r:id="rId2" display="http://118.24.105.78:2333/question/update" xr:uid="{B9514960-B476-41E1-8E73-BBA1FB5E0ACB}"/>
+    <hyperlink ref="C4" r:id="rId3" display="http://118.24.105.78:2333/question/update" xr:uid="{7846103F-9667-4CB2-926F-C7FC96F1007F}"/>
+    <hyperlink ref="C5" r:id="rId4" display="http://118.24.105.78:2333/question/update" xr:uid="{55F94730-C260-48A3-8F2A-4CE5185424D4}"/>
+    <hyperlink ref="C6" r:id="rId5" display="http://118.24.105.78:2333/question/update" xr:uid="{A328D1FE-B0E9-468C-915F-E2D248AD7613}"/>
+    <hyperlink ref="C7" r:id="rId6" display="http://118.24.105.78:2333/question/update" xr:uid="{3F5D097D-4C12-4D2A-9604-0F32E02D5F84}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19301890-3C57-42A2-84F7-AB2D2C385BF1}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
+        <v>384</v>
+      </c>
+      <c r="F2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>376</v>
+      </c>
+      <c r="F3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>378</v>
+      </c>
+      <c r="F4" t="s">
+        <v>285</v>
+      </c>
+      <c r="G4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>379</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" t="s">
+        <v>380</v>
+      </c>
+      <c r="F5" t="s">
+        <v>285</v>
+      </c>
+      <c r="G5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>381</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" t="s">
+        <v>382</v>
+      </c>
+      <c r="F6" t="s">
+        <v>285</v>
+      </c>
+      <c r="G6">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{5E63BAA5-4825-4059-AD94-2C9A3C43DB94}"/>
+    <hyperlink ref="C3" r:id="rId2" display="http://118.24.105.78:2333/question/delete" xr:uid="{EF497DF7-D3D0-4FA5-A845-9B90A83CAE04}"/>
+    <hyperlink ref="C4" r:id="rId3" display="http://118.24.105.78:2333/question/delete" xr:uid="{D96EA324-B088-4809-B458-D9B664C66442}"/>
+    <hyperlink ref="C5" r:id="rId4" display="http://118.24.105.78:2333/question/delete" xr:uid="{F577BDD2-DBB4-41AD-87A3-EA65CA8E87AF}"/>
+    <hyperlink ref="C6" r:id="rId5" display="http://118.24.105.78:2333/question/delete" xr:uid="{D465E3E8-BF3F-4FDD-B600-0F79A3FC1067}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC3E58CE-4A6B-4CB9-8469-B572AC139CE1}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
+        <v>391</v>
+      </c>
+      <c r="F2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>394</v>
+      </c>
+      <c r="F3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>395</v>
+      </c>
+      <c r="F4" t="s">
+        <v>285</v>
+      </c>
+      <c r="G4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>386</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" t="s">
+        <v>398</v>
+      </c>
+      <c r="F5" t="s">
+        <v>285</v>
+      </c>
+      <c r="G5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>396</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" t="s">
+        <v>389</v>
+      </c>
+      <c r="F6" t="s">
+        <v>285</v>
+      </c>
+      <c r="G6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>397</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>400</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" t="s">
+        <v>401</v>
+      </c>
+      <c r="F8" t="s">
+        <v>285</v>
+      </c>
+      <c r="G8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>387</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" t="s">
+        <v>402</v>
+      </c>
+      <c r="F9" t="s">
+        <v>285</v>
+      </c>
+      <c r="G9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>403</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" t="s">
+        <v>404</v>
+      </c>
+      <c r="F10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>388</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" t="s">
+        <v>405</v>
+      </c>
+      <c r="F11" t="s">
+        <v>285</v>
+      </c>
+      <c r="G11">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{0AF818EA-5BA2-4AA9-ACBF-01A49E158602}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{A2C07CA3-BFC8-4886-AB0A-1016087F98A9}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{17DDAB60-F7AD-4E8D-A2D3-A4354DFB0D4C}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{BC9E377C-A0B0-4A32-879D-0BDF187AAB99}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{A2E2D1AC-41F8-467B-B57A-001E971E2F01}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{95D39B51-23FD-43D6-AC3E-0BD0BDADD038}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{F0DFE598-668E-47B4-86D2-EB53A1BB599E}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{3E95330C-491A-4A06-A4CA-C3977607A6BF}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{A92D4800-4470-4790-98EF-4195533C3D5C}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{41E40397-54D2-4A7E-B57B-5E8724115A54}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CBA2164-6ACB-4A75-9657-6E3186DA8B6D}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G2">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{88A8BB82-D302-48B5-9AE2-C1FA742E1094}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4983,16 +7542,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
         <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
       </c>
       <c r="G2">
         <v>200</v>
@@ -5003,16 +7562,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3">
         <v>401</v>
@@ -5023,16 +7582,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G4">
         <v>401</v>
@@ -5043,16 +7602,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>401</v>
@@ -5063,16 +7622,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>401</v>
@@ -5083,16 +7642,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7">
         <v>401</v>
@@ -5110,6 +7669,1187 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604A7811-9002-484C-8FE4-91BE3456A429}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G2">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{6A0E6E4E-8D24-46BE-8512-507C14674EFD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC33B05-1AFE-4E7D-B0BB-B5F39793C318}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
+        <v>423</v>
+      </c>
+      <c r="F2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>424</v>
+      </c>
+      <c r="F3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>412</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>425</v>
+      </c>
+      <c r="F4" t="s">
+        <v>285</v>
+      </c>
+      <c r="G4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>413</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" t="s">
+        <v>426</v>
+      </c>
+      <c r="F5" t="s">
+        <v>285</v>
+      </c>
+      <c r="G5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>414</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" t="s">
+        <v>416</v>
+      </c>
+      <c r="F6" t="s">
+        <v>285</v>
+      </c>
+      <c r="G6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>415</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" t="s">
+        <v>417</v>
+      </c>
+      <c r="F7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>419</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F8" t="s">
+        <v>285</v>
+      </c>
+      <c r="G8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>420</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" t="s">
+        <v>427</v>
+      </c>
+      <c r="F9" t="s">
+        <v>285</v>
+      </c>
+      <c r="G9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>421</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" t="s">
+        <v>428</v>
+      </c>
+      <c r="F10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>422</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" t="s">
+        <v>429</v>
+      </c>
+      <c r="F11" t="s">
+        <v>285</v>
+      </c>
+      <c r="G11">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{50E46822-BDF4-414A-B66F-9749DE6550E2}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{EA467F73-CFC8-491A-8D71-D2785BAF69A6}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{8862EBDD-F583-4251-BA26-9FA6B9DF17DB}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{D68DEFA8-42D1-4231-9177-7F4E76F9FF0B}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{B793695F-B55C-4887-88FE-2F67E29A7B93}"/>
+    <hyperlink ref="C6" r:id="rId6" xr:uid="{42DAB57E-897D-470B-B816-E65815AC0419}"/>
+    <hyperlink ref="C7" r:id="rId7" xr:uid="{37CD112F-2E8B-4794-8F51-19FF6AF00DB6}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{61500F25-9726-4391-9AA1-5981590FC0B3}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{7F7F1CAF-EA15-4AF8-B7DC-08BFD13BA16A}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{B6895598-14DE-4027-A9BA-C02E61F78247}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D8A3BA-47BF-4DAB-80D6-958A4F0D2C4D}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>443</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>433</v>
+      </c>
+      <c r="F3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>434</v>
+      </c>
+      <c r="F4" t="s">
+        <v>285</v>
+      </c>
+      <c r="G4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>445</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" t="s">
+        <v>435</v>
+      </c>
+      <c r="F5" t="s">
+        <v>285</v>
+      </c>
+      <c r="G5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>446</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" t="s">
+        <v>436</v>
+      </c>
+      <c r="F6" t="s">
+        <v>285</v>
+      </c>
+      <c r="G6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>447</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" t="s">
+        <v>437</v>
+      </c>
+      <c r="F7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>448</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F8" t="s">
+        <v>285</v>
+      </c>
+      <c r="G8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>449</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" t="s">
+        <v>439</v>
+      </c>
+      <c r="F9" t="s">
+        <v>285</v>
+      </c>
+      <c r="G9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>450</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" t="s">
+        <v>440</v>
+      </c>
+      <c r="F10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>451</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" t="s">
+        <v>441</v>
+      </c>
+      <c r="F11" t="s">
+        <v>285</v>
+      </c>
+      <c r="G11">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{1815137F-7201-4526-93CE-C78E94B4ECFA}"/>
+    <hyperlink ref="C3" r:id="rId2" display="http://118.24.105.78:2333/userfellgoods" xr:uid="{D62EFCBB-692F-4D53-B9C5-F2E8FCB7190A}"/>
+    <hyperlink ref="C4" r:id="rId3" display="http://118.24.105.78:2333/userfellgoods" xr:uid="{896217E7-B877-4226-BB31-3C76640BC3FD}"/>
+    <hyperlink ref="C5" r:id="rId4" display="http://118.24.105.78:2333/userfellgoods" xr:uid="{5AD2A4D0-BC56-461C-B740-44E650F89F56}"/>
+    <hyperlink ref="C8" r:id="rId5" display="http://118.24.105.78:2333/userfellgoods" xr:uid="{BAF060F9-46AB-4FEC-93CC-1A747824E277}"/>
+    <hyperlink ref="C6" r:id="rId6" display="http://118.24.105.78:2333/userfellgoods" xr:uid="{9F0263F8-D7EF-4253-85BB-EFB5DDCC4496}"/>
+    <hyperlink ref="C7" r:id="rId7" display="http://118.24.105.78:2333/userfellgoods" xr:uid="{29C4B54C-6CE8-4F7F-AD1E-97A3E8006968}"/>
+    <hyperlink ref="C9" r:id="rId8" display="http://118.24.105.78:2333/userfellgoods" xr:uid="{84220D72-D2D2-4192-BCA8-D062A0707D44}"/>
+    <hyperlink ref="C10" r:id="rId9" display="http://118.24.105.78:2333/userfellgoods" xr:uid="{ADCE9DFA-3877-4FFD-BABD-3A529762A742}"/>
+    <hyperlink ref="C11" r:id="rId10" display="http://118.24.105.78:2333/userfellgoods" xr:uid="{B2CE6A0F-ACD7-4C0C-B33B-8D45C3649E6A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD32CBB-2292-4ACD-AAB8-8F8496759B69}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>453</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>459</v>
+      </c>
+      <c r="F3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>454</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>460</v>
+      </c>
+      <c r="F4" t="s">
+        <v>285</v>
+      </c>
+      <c r="G4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" t="s">
+        <v>461</v>
+      </c>
+      <c r="F5" t="s">
+        <v>285</v>
+      </c>
+      <c r="G5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>456</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" t="s">
+        <v>462</v>
+      </c>
+      <c r="F6" t="s">
+        <v>285</v>
+      </c>
+      <c r="G6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>463</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" t="s">
+        <v>464</v>
+      </c>
+      <c r="F7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>465</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" t="s">
+        <v>466</v>
+      </c>
+      <c r="F8" t="s">
+        <v>285</v>
+      </c>
+      <c r="G8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>467</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" t="s">
+        <v>468</v>
+      </c>
+      <c r="F9" t="s">
+        <v>285</v>
+      </c>
+      <c r="G9">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="http://118.24.105.78:2333/usercollections" xr:uid="{95CA1035-67A5-49BA-84A9-0FF74D29B471}"/>
+    <hyperlink ref="C3" r:id="rId2" display="http://118.24.105.78:2333/userfellgoods" xr:uid="{74AF5208-0B5B-480C-8956-0CEED806036C}"/>
+    <hyperlink ref="C4" r:id="rId3" display="http://118.24.105.78:2333/userfellgoods" xr:uid="{DDDF6E5B-5359-4125-904F-B622F0F6A4A6}"/>
+    <hyperlink ref="C7" r:id="rId4" display="http://118.24.105.78:2333/userfellgoods" xr:uid="{2F8697CF-5BD3-4E03-8B58-530A7B93C677}"/>
+    <hyperlink ref="C5" r:id="rId5" display="http://118.24.105.78:2333/userfellgoods" xr:uid="{8D8D960F-661B-4063-BD31-47B5F483D87F}"/>
+    <hyperlink ref="C6" r:id="rId6" display="http://118.24.105.78:2333/userfellgoods" xr:uid="{5F99B671-558D-4F7F-8DE4-8D7A8D5ED3FA}"/>
+    <hyperlink ref="C8" r:id="rId7" display="http://118.24.105.78:2333/userfellgoods" xr:uid="{997FC34D-6055-4156-956D-574B60F55FDF}"/>
+    <hyperlink ref="C9" r:id="rId8" display="http://118.24.105.78:2333/userfellgoods" xr:uid="{94ED2F35-7B2A-4792-A2E5-B702DB39D03F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C20447-3E98-4E28-88E4-77B8AFB59C38}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>471</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>475</v>
+      </c>
+      <c r="F3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>472</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>476</v>
+      </c>
+      <c r="F4" t="s">
+        <v>285</v>
+      </c>
+      <c r="G4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>473</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" t="s">
+        <v>477</v>
+      </c>
+      <c r="F5" t="s">
+        <v>285</v>
+      </c>
+      <c r="G5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>478</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" t="s">
+        <v>479</v>
+      </c>
+      <c r="F6" t="s">
+        <v>285</v>
+      </c>
+      <c r="G6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>480</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" t="s">
+        <v>481</v>
+      </c>
+      <c r="F7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>482</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" t="s">
+        <v>487</v>
+      </c>
+      <c r="F8" t="s">
+        <v>285</v>
+      </c>
+      <c r="G8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>483</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" t="s">
+        <v>486</v>
+      </c>
+      <c r="F9" t="s">
+        <v>285</v>
+      </c>
+      <c r="G9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>484</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" t="s">
+        <v>485</v>
+      </c>
+      <c r="F10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G10">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{AD287B0B-F9AD-4347-AD19-796281A4BC68}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{23CDB579-6836-4C4E-8070-65EB462E175A}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{A50A68F4-4A15-4A2A-9D58-1B156A95506E}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{A41E135F-3AAD-47DB-8394-F694EF16AAED}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{5E95CB28-88FF-4BF9-94F0-B55EC12910B0}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{4C4C6264-CDB1-48CD-9668-0AE9B161A0C9}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{050288C5-48A1-4560-8DBC-98BCD526B719}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{C4A1AE35-F599-40A2-B3DF-62E208DFE841}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{C95AD3D6-3EB9-44C6-8DD8-F5030FDE3837}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517B2AA2-178D-4847-9231-F559B0AA899F}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
+        <v>492</v>
+      </c>
+      <c r="F2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>490</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>491</v>
+      </c>
+      <c r="F3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G3">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{8CECA914-18DF-4AD6-8C86-3A8BAC695125}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{9CFEE2F7-5F03-4E6E-AB8F-DF627B4B8F14}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6595EAE0-1FB7-4AAB-A187-7421D2141324}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5151,10 +8891,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -5171,10 +8911,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -5191,10 +8931,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -5211,10 +8951,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -5231,10 +8971,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -5251,10 +8991,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -5285,7 +9025,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5318,16 +9058,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -5341,16 +9081,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -5364,16 +9104,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
         <v>78</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" t="s">
-        <v>79</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -5387,16 +9127,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
@@ -5410,16 +9150,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" t="s">
         <v>81</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" t="s">
-        <v>82</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -5433,16 +9173,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" t="s">
         <v>83</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" t="s">
-        <v>84</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -5456,16 +9196,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" t="s">
         <v>85</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" t="s">
-        <v>86</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
@@ -5479,16 +9219,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" t="s">
         <v>87</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" t="s">
-        <v>88</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -5502,16 +9242,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" t="s">
         <v>90</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10" t="s">
-        <v>91</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -5525,16 +9265,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -5548,16 +9288,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" t="s">
         <v>94</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" t="s">
-        <v>95</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
@@ -5571,16 +9311,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>99</v>
+        <v>287</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
@@ -5594,16 +9334,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
@@ -5617,16 +9357,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
@@ -5640,16 +9380,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F16" t="s">
         <v>11</v>
@@ -5722,16 +9462,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2">
         <v>200</v>
@@ -5742,16 +9482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3">
         <v>401</v>
@@ -5762,16 +9502,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G4">
         <v>401</v>
@@ -5782,16 +9522,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>401</v>
@@ -5802,16 +9542,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>401</v>
@@ -5822,16 +9562,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7">
         <v>401</v>
@@ -5890,10 +9630,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -5910,10 +9650,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -5930,10 +9670,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -5950,10 +9690,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -5970,10 +9710,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -5990,10 +9730,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -6057,10 +9797,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -6077,10 +9817,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -6097,10 +9837,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -6117,10 +9857,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -6137,10 +9877,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -6157,10 +9897,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
